--- a/data/trans_orig/P74B2S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{448EAE51-1800-4179-8126-BA52AAE02352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EB3CDC-AC68-4DA7-B8B4-07327AF8FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5C5BDD-D24F-4DC2-8EA5-BE7202A8AF77}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D242A6F-DB06-4E8D-B3F2-59CBBD86BAED}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2CDDEF-F66F-4BB0-9244-E4603A04A294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CDA373-4F48-4CAC-9CB3-C4A9ABA80B30}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P74B2S3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EB3CDC-AC68-4DA7-B8B4-07327AF8FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C4F30B-9992-4AB8-AE0D-73FA0D822473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D242A6F-DB06-4E8D-B3F2-59CBBD86BAED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A66DE92-86A0-49FD-ACC9-BA4CF439D223}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -74,10 +74,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -507,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CDA373-4F48-4CAC-9CB3-C4A9ABA80B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B593D134-A43E-445C-ACE7-DA6487AB92F9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
